--- a/biology/Zoologie/Bombina/Bombina.xlsx
+++ b/biology/Zoologie/Bombina/Bombina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bombina est un genre d'amphibiens de la famille des Bombinatoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bombina est un genre d'amphibiens de la famille des Bombinatoridae.
 On les appelle communément Sonneurs ou Crapauds sonneurs.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent en Europe, en Turquie, en Russie, en Corée, en Chine et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent en Europe, en Turquie, en Russie, en Corée, en Chine et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 Bombina bombina (Linnaeus, 1761) — Sonneur à ventre de feu
 Bombina maxima (Boulenger, 1905)
 Bombina microdeladigitora Liu, Hu, &amp; Wang, 1960
@@ -578,9 +594,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yu, Yang, Zhang et Rao en 2007[3] ont révisé ce genre, ils ont placé Bombina fortinuptialis et Bombina microdeladigitora en synonymie avec Bombina maxima.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yu, Yang, Zhang et Rao en 2007 ont révisé ce genre, ils ont placé Bombina fortinuptialis et Bombina microdeladigitora en synonymie avec Bombina maxima.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oken, 1816 : Lehrbuch der Naturgeschichte. Dritter Theil, Zoologie. Zweite Abtheilung, Fleischthiere. Jena, Schmid, p. 1–1272.</t>
         </is>
